--- a/legislator/property/output/normal/田秋堇_2012-04-10_財產申報表_tmp9b251.xlsx
+++ b/legislator/property/output/normal/田秋堇_2012-04-10_財產申報表_tmp9b251.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="97">
   <si>
     <t>土地坐落</t>
   </si>
@@ -182,6 +182,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>杏輝藥品工業股份有限公 司</t>
   </si>
   <si>
@@ -189,6 +198,9 @@
   </si>
   <si>
     <t>亞洲水泥股份有限公司</t>
+  </si>
+  <si>
+    <t>2012-04-10</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1075,13 +1087,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
@@ -1100,13 +1112,22 @@
       <c r="G1" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -1123,13 +1144,22 @@
       <c r="G2" s="2">
         <v>6330</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -1146,13 +1176,22 @@
       <c r="G3" s="2">
         <v>4720</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
@@ -1168,6 +1207,15 @@
       </c>
       <c r="G4" s="2">
         <v>270</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1316</v>
       </c>
     </row>
   </sheetData>
@@ -1185,22 +1233,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>34</v>
@@ -1211,25 +1259,25 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2">
         <v>69.772</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1237,16 +1285,16 @@
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F3" s="2">
         <v>464</v>
@@ -1255,7 +1303,7 @@
         <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1263,13 +1311,13 @@
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E4" s="2">
         <v>648.508</v>
@@ -1281,7 +1329,7 @@
         <v>39</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1299,22 +1347,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1322,14 +1370,14 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1339,22 +1387,22 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1372,16 +1420,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1389,16 +1437,16 @@
         <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1406,16 +1454,16 @@
         <v>88</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1423,16 +1471,16 @@
         <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/田秋堇_2012-04-10_財產申報表_tmp9b251.xlsx
+++ b/legislator/property/output/normal/田秋堇_2012-04-10_財產申報表_tmp9b251.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="99">
   <si>
     <t>土地坐落</t>
   </si>
@@ -182,6 +182,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -191,13 +194,16 @@
     <t>legislator_id</t>
   </si>
   <si>
-    <t>杏輝藥品工業股份有限公 司</t>
+    <t>杏輝藥品工業股份有限公司</t>
   </si>
   <si>
     <t>中華電信股份有限公司</t>
   </si>
   <si>
     <t>亞洲水泥股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-10</t>
@@ -1087,13 +1093,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
@@ -1121,13 +1127,16 @@
       <c r="J1" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -1145,21 +1154,24 @@
         <v>6330</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="2">
+        <v>61</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="2">
         <v>1316</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -1177,21 +1189,24 @@
         <v>4720</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="2">
+        <v>61</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="2">
         <v>1316</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
@@ -1209,12 +1224,15 @@
         <v>270</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="2">
+        <v>61</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="2">
         <v>1316</v>
       </c>
     </row>
@@ -1233,22 +1251,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>34</v>
@@ -1259,25 +1277,25 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2">
         <v>69.772</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1285,16 +1303,16 @@
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F3" s="2">
         <v>464</v>
@@ -1303,7 +1321,7 @@
         <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1311,13 +1329,13 @@
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E4" s="2">
         <v>648.508</v>
@@ -1329,7 +1347,7 @@
         <v>39</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1347,22 +1365,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1370,14 +1388,14 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1387,22 +1405,22 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1420,16 +1438,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1437,16 +1455,16 @@
         <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1454,16 +1472,16 @@
         <v>88</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1471,16 +1489,16 @@
         <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/田秋堇_2012-04-10_財產申報表_tmp9b251.xlsx
+++ b/legislator/property/output/normal/田秋堇_2012-04-10_財產申報表_tmp9b251.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="104">
   <si>
     <t>土地坐落</t>
   </si>
@@ -185,6 +185,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -194,6 +197,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>杏輝藥品工業股份有限公司</t>
   </si>
   <si>
@@ -206,7 +215,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-10</t>
+  </si>
+  <si>
+    <t>tmp9b251</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1093,13 +1108,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
@@ -1130,13 +1145,22 @@
       <c r="K1" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -1154,24 +1178,33 @@
         <v>6330</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="2">
+        <v>65</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="2">
         <v>1316</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -1189,24 +1222,33 @@
         <v>4720</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1316</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" s="2">
         <v>60</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
@@ -1224,16 +1266,25 @@
         <v>270</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1316</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="2">
         <v>61</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1316</v>
       </c>
     </row>
   </sheetData>
@@ -1251,22 +1302,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>34</v>
@@ -1277,25 +1328,25 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2">
         <v>69.772</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1303,16 +1354,16 @@
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F3" s="2">
         <v>464</v>
@@ -1321,7 +1372,7 @@
         <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1329,13 +1380,13 @@
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2">
         <v>648.508</v>
@@ -1347,7 +1398,7 @@
         <v>39</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1365,22 +1416,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1388,14 +1439,14 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1405,22 +1456,22 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1438,16 +1489,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1455,16 +1506,16 @@
         <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1472,16 +1523,16 @@
         <v>88</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1489,16 +1540,16 @@
         <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/田秋堇_2012-04-10_財產申報表_tmp9b251.xlsx
+++ b/legislator/property/output/normal/田秋堇_2012-04-10_財產申報表_tmp9b251.xlsx
@@ -21,9 +21,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="104">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="109">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>宜蘭縣宜蘭市珍子滿力段擺厘小段00020031地號</t>
+  </si>
+  <si>
+    <t>10000分之329</t>
+  </si>
+  <si>
+    <t>田秋堇</t>
+  </si>
+  <si>
+    <t>79年05月15曰</t>
+  </si>
+  <si>
+    <t>第一次登記</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-10</t>
+  </si>
+  <si>
+    <t>tmp9b251</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -44,31 +116,10 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>宜蘭縣宜蘭市珍子滿力段擺厘 小段0002-0031地號</t>
-  </si>
-  <si>
-    <t>10000分之 329</t>
-  </si>
-  <si>
-    <t>田秋堇</t>
-  </si>
-  <si>
-    <t>79年05月 15曰</t>
-  </si>
-  <si>
-    <t>第一次登 記</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>宜蘭縣宜蘭市珍子滿力段擺厘 小段01059-000建號</t>
-  </si>
-  <si>
-    <t>宜蘭縣宜蘭市珍子滿力段擺厘 小段01058-000建號</t>
+    <t>宜蘭縣宜蘭市珍子滿力段擺厘小段01059000建號</t>
+  </si>
+  <si>
+    <t>宜蘭縣宜蘭市珍子滿力段擺厘小段01058000建號</t>
   </si>
   <si>
     <t>30分之1</t>
@@ -77,10 +128,10 @@
     <t>全部</t>
   </si>
   <si>
-    <t>79年05月 15日</t>
-  </si>
-  <si>
-    <t>79年05月 15闩</t>
+    <t>79年05月15日</t>
+  </si>
+  <si>
+    <t>79年05月15闩</t>
   </si>
   <si>
     <t>買賣</t>
@@ -107,10 +158,10 @@
     <t>劉守成</t>
   </si>
   <si>
-    <t>85年11月 25日</t>
-  </si>
-  <si>
-    <t>98年07月 03日</t>
+    <t>85年11月25日</t>
+  </si>
+  <si>
+    <t>98年07月03日</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -131,7 +182,7 @@
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
-    <t>台北富邦商業銀行羅東分 行</t>
+    <t>台北富邦商業銀行羅東分行</t>
   </si>
   <si>
     <t>活期存款</t>
@@ -152,22 +203,16 @@
     <t>歐元</t>
   </si>
   <si>
-    <t>36,373.88</t>
-  </si>
-  <si>
-    <t>4,463.54</t>
-  </si>
-  <si>
-    <t>1,073,920.62</t>
-  </si>
-  <si>
-    <t>3,227.88</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
+    <t>36373.88</t>
+  </si>
+  <si>
+    <t>4463.54</t>
+  </si>
+  <si>
+    <t>1073920.62</t>
+  </si>
+  <si>
+    <t>3227.88</t>
   </si>
   <si>
     <t>quantity</t>
@@ -182,27 +227,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>杏輝藥品工業股份有限公司</t>
   </si>
   <si>
@@ -215,15 +239,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-10</t>
-  </si>
-  <si>
-    <t>tmp9b251</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -239,28 +254,28 @@
     <t>外幣幣別</t>
   </si>
   <si>
-    <t>德利全球資源產 業基金</t>
-  </si>
-  <si>
-    <t>聯博美國收益澳 幣避險基金</t>
-  </si>
-  <si>
-    <t>台北富邦商業 銀行</t>
-  </si>
-  <si>
-    <t>5,315.604</t>
-  </si>
-  <si>
-    <t>3，835</t>
-  </si>
-  <si>
-    <t>267,575.62</t>
-  </si>
-  <si>
-    <t>2,466,440.26</t>
-  </si>
-  <si>
-    <t>301,931.21</t>
+    <t>德利全球資源產業基金</t>
+  </si>
+  <si>
+    <t>聯博美國收益澳幣避險基金</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行</t>
+  </si>
+  <si>
+    <t>5315.604</t>
+  </si>
+  <si>
+    <t>3835</t>
+  </si>
+  <si>
+    <t>267575.62</t>
+  </si>
+  <si>
+    <t>2466440.26</t>
+  </si>
+  <si>
+    <t>301931.21</t>
   </si>
   <si>
     <t>名</t>
@@ -278,22 +293,22 @@
     <t>人</t>
   </si>
   <si>
-    <t>(九）珠寶、古董、字畫及#</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
-  </si>
-  <si>
-    <t>-他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>項 /</t>
+    <t>(九）珠寶古董字畫及#</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總</t>
+  </si>
+  <si>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>1額：新臺幣 元）</t>
+    <t>1額：新臺幣元）</t>
   </si>
   <si>
     <t>價</t>
@@ -326,13 +341,13 @@
     <t>歡喜年年終身乙型</t>
   </si>
   <si>
-    <t>截至101.04.10保單參考市值 為 216,066 元。</t>
-  </si>
-  <si>
-    <t>截至101.04.10保單參考市值 為 168,663 元。</t>
-  </si>
-  <si>
-    <t>截至101.04.10保單參考市值 為 2,732,956 元。</t>
+    <t>截至101.04.10保單參考市值為216066元。</t>
+  </si>
+  <si>
+    <t>截至101.04.10保單參考市值為168663元。</t>
+  </si>
+  <si>
+    <t>截至101.04.10保單參考市值為2732956元。</t>
   </si>
 </sst>
 </file>
@@ -691,13 +706,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -719,31 +734,73 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1442</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1316</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -761,25 +818,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -787,25 +844,25 @@
         <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
         <v>295.35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -813,25 +870,25 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2">
         <v>111.1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -849,22 +906,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -872,22 +929,22 @@
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2">
         <v>1600</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -895,19 +952,19 @@
         <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2">
         <v>3456</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2">
         <v>720000</v>
@@ -928,22 +985,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -951,16 +1008,16 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -972,16 +1029,16 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -993,22 +1050,22 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2">
         <v>146.97</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1016,22 +1073,22 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1039,16 +1096,16 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1060,22 +1117,22 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F7" s="2">
         <v>8880</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1083,16 +1140,16 @@
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F8" s="2">
         <v>0.02</v>
@@ -1116,43 +1173,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1160,10 +1217,10 @@
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2">
         <v>633</v>
@@ -1172,28 +1229,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="G2" s="2">
         <v>6330</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L2" s="2">
         <v>1316</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="N2" s="2">
         <v>59</v>
@@ -1204,10 +1261,10 @@
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2">
         <v>472</v>
@@ -1216,28 +1273,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="G3" s="2">
         <v>4720</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L3" s="2">
         <v>1316</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="N3" s="2">
         <v>60</v>
@@ -1248,10 +1305,10 @@
         <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2">
         <v>27</v>
@@ -1260,28 +1317,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="G4" s="2">
         <v>270</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L4" s="2">
         <v>1316</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="N4" s="2">
         <v>61</v>
@@ -1302,25 +1359,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1328,25 +1385,25 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2">
         <v>69.772</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1354,25 +1411,25 @@
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F3" s="2">
         <v>464</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1380,13 +1437,13 @@
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2">
         <v>648.508</v>
@@ -1395,10 +1452,10 @@
         <v>15.33</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1416,22 +1473,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1439,14 +1496,14 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1456,22 +1513,22 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1489,16 +1546,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1506,16 +1563,16 @@
         <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1523,16 +1580,16 @@
         <v>88</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1540,16 +1597,16 @@
         <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/田秋堇_2012-04-10_財產申報表_tmp9b251.xlsx
+++ b/legislator/property/output/normal/田秋堇_2012-04-10_財產申報表_tmp9b251.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="82">
   <si>
     <t>name</t>
   </si>
@@ -71,33 +71,57 @@
     <t>total</t>
   </si>
   <si>
+    <t>宜蘭縣宜蘭市珍子滿力段擺厘小段00020031地號</t>
+  </si>
+  <si>
+    <t>10000分之329</t>
+  </si>
+  <si>
+    <t>田秋堇</t>
+  </si>
+  <si>
+    <t>79年05月15曰</t>
+  </si>
+  <si>
+    <t>第一次登記</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-10</t>
+  </si>
+  <si>
+    <t>tmp9b251</t>
+  </si>
+  <si>
     <t>宜蘭縣宜蘭市珍子滿力段擺厘小段01059000建號</t>
   </si>
   <si>
+    <t>宜蘭縣宜蘭市珍子滿力段擺厘小段01058000建號</t>
+  </si>
+  <si>
     <t>30分之1</t>
   </si>
   <si>
-    <t>田秋堇</t>
+    <t>全部</t>
   </si>
   <si>
     <t>79年05月15日</t>
   </si>
   <si>
+    <t>79年05月15闩</t>
+  </si>
+  <si>
     <t>買賣</t>
   </si>
   <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>宜蘭縣宜蘭市珍子滿力段擺厘小段01058000建號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>79年05月15闩</t>
-  </si>
-  <si>
     <t>買賣.</t>
   </si>
   <si>
@@ -161,6 +185,9 @@
     <t>currency</t>
   </si>
   <si>
+    <t>杏輝藥品工業股份有限公司</t>
+  </si>
+  <si>
     <t>中華電信股份有限公司</t>
   </si>
   <si>
@@ -168,15 +195,6 @@
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-10</t>
-  </si>
-  <si>
-    <t>tmp9b251</t>
   </si>
   <si>
     <t>德利全球資源產業基金</t>
@@ -607,13 +625,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -661,6 +679,59 @@
       </c>
       <c r="Q1" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1442</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1316</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0329</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>47.4418</v>
       </c>
     </row>
   </sheetData>
@@ -670,59 +741,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2">
         <v>295.35</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2">
-        <v>111.1</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1316</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2">
+        <v>19</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0333333333333333</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>9.845</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2">
+        <v>111.1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1316</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="2">
+        <v>20</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>111.1</v>
       </c>
     </row>
   </sheetData>
@@ -732,7 +910,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -740,7 +918,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1">
         <v>1600</v>
@@ -749,10 +927,10 @@
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>21</v>
@@ -760,24 +938,47 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1600</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>31</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2">
         <v>3456</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="2">
         <v>720000</v>
       </c>
     </row>
@@ -788,7 +989,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -796,13 +997,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -814,135 +1015,156 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>66310</v>
+        <v>97097</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2">
-        <v>146.97</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>40</v>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
+        <v>66310</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>39</v>
+      <c r="F4" s="2">
+        <v>146.97</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>169017</v>
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="2">
-        <v>8880</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>42</v>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>169017</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
+        <v>51</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="2">
+        <v>8880</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>52</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="B8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="2">
         <v>0.02</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G8" s="2">
         <v>0.77</v>
       </c>
     </row>
@@ -953,7 +1175,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -967,13 +1189,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1002,34 +1224,34 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2">
-        <v>472</v>
+        <v>633</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2">
-        <v>4720</v>
+        <v>6330</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>18</v>
@@ -1038,42 +1260,42 @@
         <v>1316</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="N2" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2">
-        <v>27</v>
+        <v>472</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G3" s="2">
-        <v>270</v>
+        <v>4720</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>18</v>
@@ -1082,9 +1304,53 @@
         <v>1316</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="N3" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>61</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="2">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="2">
+        <v>270</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1316</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="2">
         <v>61</v>
       </c>
     </row>
@@ -1095,7 +1361,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1103,77 +1369,103 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1">
         <v>69.772</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="2">
-        <v>464</v>
+        <v>59</v>
+      </c>
+      <c r="E2" s="2">
+        <v>69.772</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
+        <v>72</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="2">
+        <v>464</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
         <v>73</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="2">
         <v>648.508</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F4" s="2">
         <v>15.33</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>59</v>
+      <c r="G4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1183,7 +1475,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1191,39 +1483,56 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>81</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1233,7 +1542,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1241,50 +1550,67 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
+        <v>88</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
         <v>89</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>75</v>
+      <c r="B4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/田秋堇_2012-04-10_財產申報表_tmp9b251.xlsx
+++ b/legislator/property/output/normal/田秋堇_2012-04-10_財產申報表_tmp9b251.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="83">
   <si>
     <t>name</t>
   </si>
@@ -125,16 +125,19 @@
     <t>買賣.</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>中華三菱</t>
   </si>
   <si>
+    <t>國瑞</t>
+  </si>
+  <si>
+    <t>劉守成</t>
+  </si>
+  <si>
     <t>85年11月25日</t>
-  </si>
-  <si>
-    <t>國瑞</t>
-  </si>
-  <si>
-    <t>劉守成</t>
   </si>
   <si>
     <t>98年07月03日</t>
@@ -910,38 +913,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1">
-        <v>1600</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2">
         <v>1600</v>
@@ -950,7 +974,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>32</v>
@@ -958,8 +982,29 @@
       <c r="G2" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1316</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>31</v>
       </c>
@@ -973,13 +1018,34 @@
         <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="2">
         <v>720000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1316</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -997,13 +1063,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -1018,13 +1084,13 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -1039,13 +1105,13 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
@@ -1060,13 +1126,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
@@ -1075,7 +1141,7 @@
         <v>146.97</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1083,22 +1149,22 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1106,13 +1172,13 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>37</v>
@@ -1127,13 +1193,13 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>37</v>
@@ -1142,7 +1208,7 @@
         <v>8880</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1150,13 +1216,13 @@
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>37</v>
@@ -1189,13 +1255,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1227,7 +1293,7 @@
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -1239,13 +1305,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="2">
         <v>6330</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -1271,7 +1337,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -1283,13 +1349,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" s="2">
         <v>4720</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
@@ -1315,7 +1381,7 @@
         <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>37</v>
@@ -1327,13 +1393,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G4" s="2">
         <v>270</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>23</v>
@@ -1369,25 +1435,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1">
         <v>69.772</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1395,25 +1461,25 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2">
         <v>69.772</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1421,25 +1487,25 @@
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F3" s="2">
         <v>464</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1447,13 +1513,13 @@
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2">
         <v>648.508</v>
@@ -1462,10 +1528,10 @@
         <v>15.33</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1483,14 +1549,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1500,16 +1566,16 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1517,22 +1583,22 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1550,16 +1616,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1567,16 +1633,16 @@
         <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1584,16 +1650,16 @@
         <v>88</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1601,16 +1667,16 @@
         <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/田秋堇_2012-04-10_財產申報表_tmp9b251.xlsx
+++ b/legislator/property/output/normal/田秋堇_2012-04-10_財產申報表_tmp9b251.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="85">
   <si>
     <t>name</t>
   </si>
@@ -125,6 +125,9 @@
     <t>買賣.</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -141,6 +144,9 @@
   </si>
   <si>
     <t>98年07月03日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺灣銀行群賢分行</t>
@@ -826,7 +832,7 @@
         <v>21</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>23</v>
@@ -879,7 +885,7 @@
         <v>21</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>23</v>
@@ -924,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -965,7 +971,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2">
         <v>1600</v>
@@ -974,7 +980,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>32</v>
@@ -983,7 +989,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -1009,16 +1015,16 @@
         <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2">
         <v>3456</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>32</v>
@@ -1027,7 +1033,7 @@
         <v>720000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
@@ -1063,13 +1069,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -1084,13 +1090,13 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -1105,13 +1111,13 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
@@ -1126,13 +1132,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
@@ -1141,7 +1147,7 @@
         <v>146.97</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1149,22 +1155,22 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1172,16 +1178,16 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1193,22 +1199,22 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" s="2">
         <v>8880</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1216,16 +1222,16 @@
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8" s="2">
         <v>0.02</v>
@@ -1255,13 +1261,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1293,7 +1299,7 @@
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -1305,13 +1311,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G2" s="2">
         <v>6330</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -1337,7 +1343,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -1349,13 +1355,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2">
         <v>4720</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
@@ -1381,10 +1387,10 @@
         <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2">
         <v>27</v>
@@ -1393,13 +1399,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2">
         <v>270</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>23</v>
@@ -1435,25 +1441,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1">
         <v>69.772</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1461,25 +1467,25 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2">
         <v>69.772</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1487,25 +1493,25 @@
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F3" s="2">
         <v>464</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1513,13 +1519,13 @@
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2">
         <v>648.508</v>
@@ -1528,10 +1534,10 @@
         <v>15.33</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1549,14 +1555,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1566,16 +1572,16 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1583,22 +1589,22 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1616,16 +1622,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1633,16 +1639,16 @@
         <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1650,16 +1656,16 @@
         <v>88</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1667,16 +1673,16 @@
         <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/田秋堇_2012-04-10_財產申報表_tmp9b251.xlsx
+++ b/legislator/property/output/normal/田秋堇_2012-04-10_財產申報表_tmp9b251.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="84">
   <si>
     <t>name</t>
   </si>
@@ -149,18 +149,27 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
+    <t>台北富邦商業銀行羅東分行</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>台北富邦商業銀行羅東分行</t>
-  </si>
-  <si>
     <t>澳幣</t>
   </si>
   <si>
@@ -173,25 +182,13 @@
     <t>歐元</t>
   </si>
   <si>
-    <t>36373.88</t>
-  </si>
-  <si>
-    <t>4463.54</t>
-  </si>
-  <si>
-    <t>1073920.62</t>
-  </si>
-  <si>
-    <t>3227.88</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>杏輝藥品工業股份有限公司</t>
@@ -1061,13 +1058,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>42</v>
       </c>
@@ -1078,166 +1075,318 @@
         <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>97097</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>97097</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1316</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>66310</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1316</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="2">
-        <v>146.97</v>
+        <v>4463.54</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>53</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1316</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>50</v>
+      <c r="F5" s="2">
+        <v>1073920.62</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>53</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1316</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>169017</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1316</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F7" s="2">
-        <v>8880</v>
+        <v>3227.88</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1316</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="G8" s="2">
         <v>0.77</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1316</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="2">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1267,7 +1416,7 @@
         <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1299,7 +1448,7 @@
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -1311,13 +1460,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2">
         <v>6330</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -1343,7 +1492,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -1355,13 +1504,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G3" s="2">
         <v>4720</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
@@ -1387,7 +1536,7 @@
         <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>38</v>
@@ -1399,13 +1548,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G4" s="2">
         <v>270</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>23</v>
@@ -1441,25 +1590,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="E1" s="1">
         <v>69.772</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1467,25 +1616,25 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="E2" s="2">
         <v>69.772</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1493,25 +1642,25 @@
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="F3" s="2">
         <v>464</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1519,13 +1668,13 @@
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2">
         <v>648.508</v>
@@ -1534,10 +1683,10 @@
         <v>15.33</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1555,14 +1704,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1572,16 +1721,16 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1589,22 +1738,22 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1622,16 +1771,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1639,16 +1788,16 @@
         <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1656,16 +1805,16 @@
         <v>88</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1673,16 +1822,16 @@
         <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/田秋堇_2012-04-10_財產申報表_tmp9b251.xlsx
+++ b/legislator/property/output/normal/田秋堇_2012-04-10_財產申報表_tmp9b251.xlsx
@@ -13,15 +13,14 @@
     <sheet name="存款" sheetId="4" r:id="rId4"/>
     <sheet name="股票" sheetId="5" r:id="rId5"/>
     <sheet name="基金受益憑證" sheetId="6" r:id="rId6"/>
-    <sheet name="其他有價證券" sheetId="7" r:id="rId7"/>
-    <sheet name="保險" sheetId="8" r:id="rId8"/>
+    <sheet name="保險" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="72">
   <si>
     <t>name</t>
   </si>
@@ -203,55 +202,19 @@
     <t>stock</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>德利全球資源產業基金</t>
   </si>
   <si>
+    <t>聯博美國收益澳幣避險基金</t>
+  </si>
+  <si>
     <t>台北富邦商業銀行</t>
   </si>
   <si>
-    <t>3835</t>
-  </si>
-  <si>
-    <t>267575.62</t>
-  </si>
-  <si>
-    <t>聯博美國收益澳幣避險基金</t>
-  </si>
-  <si>
-    <t>5315.604</t>
-  </si>
-  <si>
-    <t>2466440.26</t>
-  </si>
-  <si>
-    <t>301931.21</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字畫及#</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>1額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>所有人</t>
+    <t>fund</t>
   </si>
   <si>
     <t>中國人壽</t>
@@ -1582,76 +1545,118 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="1">
-        <v>69.772</v>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2">
         <v>69.772</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>62</v>
+      <c r="F2" s="2">
+        <v>3835</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="H2" s="2">
+        <v>267575.62</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1316</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5315.604</v>
       </c>
       <c r="F3" s="2">
         <v>464</v>
@@ -1659,22 +1664,43 @@
       <c r="G3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="H3" s="2">
+        <v>2466440.26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1316</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2">
         <v>648.508</v>
@@ -1685,8 +1711,29 @@
       <c r="G4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>67</v>
+      <c r="H4" s="2">
+        <v>301931.21</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1316</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="2">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1695,73 +1742,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>80</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>81</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -1771,16 +1751,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1788,16 +1768,16 @@
         <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1805,16 +1785,16 @@
         <v>88</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1822,16 +1802,16 @@
         <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/田秋堇_2012-04-10_財產申報表_tmp9b251.xlsx
+++ b/legislator/property/output/normal/田秋堇_2012-04-10_財產申報表_tmp9b251.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="71">
   <si>
     <t>name</t>
   </si>
@@ -217,25 +217,22 @@
     <t>fund</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>中國人壽</t>
   </si>
   <si>
+    <t>富邦人壽</t>
+  </si>
+  <si>
     <t>喜悅人生變額壽險</t>
   </si>
   <si>
-    <t>截至101.04.10保單參考市值為216066元。</t>
-  </si>
-  <si>
-    <t>富邦人壽</t>
-  </si>
-  <si>
     <t>歡喜年年終身乙型</t>
   </si>
   <si>
-    <t>截至101.04.10保單參考市值為168663元。</t>
-  </si>
-  <si>
-    <t>截至101.04.10保單參考市值為2732956元。</t>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -1743,52 +1740,88 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>70</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1316</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>88</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>38</v>
@@ -1796,13 +1829,31 @@
       <c r="E3" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1316</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>69</v>
@@ -1811,7 +1862,25 @@
         <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1316</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
